--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0886</v>
+        <v>15.06879999999999</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.539500000000002</v>
+        <v>-8.581700000000001</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.169499999999989</v>
+        <v>-9.459599999999991</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.149599999999997</v>
+        <v>-7.121699999999997</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.9113</v>
+        <v>16.0118</v>
       </c>
     </row>
     <row r="16">
@@ -743,10 +743,10 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.5718</v>
+        <v>-8.523199999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>16.4606</v>
+        <v>16.48570000000001</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.84849999999999</v>
+        <v>15.9051</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.00190000000001</v>
+        <v>17.06870000000001</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.30249999999999</v>
+        <v>15.51389999999999</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.66</v>
+        <v>15.98309999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.718199999999999</v>
+        <v>-7.750399999999994</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.04260000000001</v>
+        <v>17.05060000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.1348</v>
+        <v>16.3091</v>
       </c>
     </row>
     <row r="51">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.5009</v>
+        <v>-8.401999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,10 +1593,10 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.046999999999994</v>
+        <v>-7.025399999999998</v>
       </c>
       <c r="E68" t="n">
-        <v>18.19780000000001</v>
+        <v>18.1281</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.20549999999999</v>
+        <v>16.25209999999998</v>
       </c>
     </row>
     <row r="77">
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.552</v>
+        <v>-5.748500000000002</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.359600000000005</v>
+        <v>-7.518700000000004</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.7389</v>
+        <v>-7.641499999999997</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.281499999999994</v>
+        <v>-8.214600000000001</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.3401</v>
+        <v>16.2987</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.4035</v>
+        <v>16.3699</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.43739999999999</v>
+        <v>16.11639999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.46030000000001</v>
+        <v>15.3486</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.90840000000001</v>
+        <v>16.71900000000002</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.6969</v>
+        <v>16.6573</v>
       </c>
     </row>
   </sheetData>
